--- a/Code_Figures/Data/FluidInclusions_final.xlsx
+++ b/Code_Figures/Data/FluidInclusions_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gleesonm/Library/CloudStorage/GoogleDrive-matthew.gleeson.geo@gmail.com/My Drive/!!!Berkeley/2024/GalapagosGabbros/Final/ToSubmit/GleesonEtAl_JPet_2024_supplement/Code_Figures/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gleesonm/Library/CloudStorage/GoogleDrive-matthew.gleeson.geo@gmail.com/My Drive/!!!Berkeley/2024/GalapagosGabbros/Review/Final/GleesonEtAl_JPet_2024_supplement/Code_Figures/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D09B67-B460-314B-95CF-DE93870FD0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2E2906-EC12-A04A-82C5-5E19EDCE1F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="1980" windowWidth="27720" windowHeight="15040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="62">
   <si>
     <t>Sample</t>
   </si>
@@ -41,48 +41,6 @@
     <t>Homogenized_to (V for vapor, L for liquid)</t>
   </si>
   <si>
-    <t>04b_p3_FI1</t>
-  </si>
-  <si>
-    <t>04b_p3_FI2</t>
-  </si>
-  <si>
-    <t>04b_p3_FI3</t>
-  </si>
-  <si>
-    <t>04b_p3_FI4</t>
-  </si>
-  <si>
-    <t>04b_p1_FI1</t>
-  </si>
-  <si>
-    <t>04b_p1_FI2</t>
-  </si>
-  <si>
-    <t>04b_p1_FI3</t>
-  </si>
-  <si>
-    <t>04b_p4_FI1</t>
-  </si>
-  <si>
-    <t>04b_p4_FI2</t>
-  </si>
-  <si>
-    <t>04b_p2_FI1</t>
-  </si>
-  <si>
-    <t>04b_p2_FI2</t>
-  </si>
-  <si>
-    <t>04b_p2_FI3</t>
-  </si>
-  <si>
-    <t>04b_p2_FI4</t>
-  </si>
-  <si>
-    <t>04b_p2_FI5</t>
-  </si>
-  <si>
     <t>03b_pyx1_FI1</t>
   </si>
   <si>
@@ -167,13 +125,100 @@
     <t>S</t>
   </si>
   <si>
-    <t>04b_p5_FI1</t>
-  </si>
-  <si>
-    <t>04b_p5_FI2</t>
-  </si>
-  <si>
-    <t>04b_p5_FI3</t>
+    <t>V</t>
+  </si>
+  <si>
+    <t>04b_pyx11_FI1</t>
+  </si>
+  <si>
+    <t>04b_pyx11_FI2</t>
+  </si>
+  <si>
+    <t>04b_pyx11_FI4</t>
+  </si>
+  <si>
+    <t>04b_pyx11_FI6</t>
+  </si>
+  <si>
+    <t>04b_pyx11_FI7</t>
+  </si>
+  <si>
+    <t>04b_pyx10_FI1</t>
+  </si>
+  <si>
+    <t>04b_pyx10_FI2</t>
+  </si>
+  <si>
+    <t>04b_pyx10_FI3</t>
+  </si>
+  <si>
+    <t>04b_pyx10_FI4</t>
+  </si>
+  <si>
+    <t>04b_pyx12_FI1</t>
+  </si>
+  <si>
+    <t>04b_pyx12_FI2</t>
+  </si>
+  <si>
+    <t>04b_pyx12_FI3</t>
+  </si>
+  <si>
+    <t>04b_pyx12_FI4</t>
+  </si>
+  <si>
+    <t>sigma_CO2_dens_raman (g/cc)</t>
+  </si>
+  <si>
+    <t>04b_pyx3_FI1</t>
+  </si>
+  <si>
+    <t>04b_pyx3_FI2</t>
+  </si>
+  <si>
+    <t>04b_pyx3_FI3</t>
+  </si>
+  <si>
+    <t>04b_pyx3_FI4</t>
+  </si>
+  <si>
+    <t>04b_pyx1_FI1</t>
+  </si>
+  <si>
+    <t>04b_pyx1_FI2</t>
+  </si>
+  <si>
+    <t>04b_pyx1_FI3</t>
+  </si>
+  <si>
+    <t>04b_pyx4_FI1</t>
+  </si>
+  <si>
+    <t>04b_pyx4_FI2</t>
+  </si>
+  <si>
+    <t>04b_pyx5_FI1</t>
+  </si>
+  <si>
+    <t>04b_pyx5_FI2</t>
+  </si>
+  <si>
+    <t>04b_pyx5_FI3</t>
+  </si>
+  <si>
+    <t>04b_pyx2_FI1</t>
+  </si>
+  <si>
+    <t>04b_pyx2_FI2</t>
+  </si>
+  <si>
+    <t>04b_pyx2_FI3</t>
+  </si>
+  <si>
+    <t>04b_pyx2_FI4</t>
+  </si>
+  <si>
+    <t>04b_pyx2_FI5</t>
   </si>
 </sst>
 </file>
@@ -184,7 +229,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +241,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -236,13 +288,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -563,7 +616,7 @@
     <col min="13" max="14" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,51 +624,54 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D2" s="3">
         <v>-14.752127659574469</v>
@@ -639,22 +695,30 @@
         <v>1.0057736375871289</v>
       </c>
       <c r="K2" s="2">
-        <v>1.0065295786920181</v>
+        <v>1.0065295786920101</v>
       </c>
       <c r="L2" s="2">
-        <v>1.0065295772838461</v>
-      </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1.0065295772838401</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0.99731085937060016</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.730232452619353E-3</v>
+      </c>
+      <c r="O2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3">
         <v>-14.752127659574469</v>
@@ -678,27 +742,30 @@
         <v>1.0057736375871289</v>
       </c>
       <c r="K3" s="2">
-        <v>1.0067244821180961</v>
+        <v>1.0067244821180901</v>
       </c>
       <c r="L3" s="2">
-        <v>1.006448591137908</v>
+        <v>1.0064485911379</v>
       </c>
       <c r="M3" s="2">
-        <v>0.9960489097518348</v>
-      </c>
-      <c r="N3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1.001248082345455</v>
+      </c>
+      <c r="N3" s="2">
+        <v>8.2157928564133859E-3</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3">
         <v>-16.458156028368791</v>
@@ -722,27 +789,30 @@
         <v>1.014041757031144</v>
       </c>
       <c r="K4" s="2">
-        <v>1.0174150027859099</v>
+        <v>1.0174150027858999</v>
       </c>
       <c r="L4" s="2">
-        <v>1.0139519824051491</v>
+        <v>1.01395198240514</v>
       </c>
       <c r="M4" s="2">
-        <v>0.99672737770811182</v>
-      </c>
-      <c r="N4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.98699684310849989</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2.2312200846461472E-3</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3">
         <v>-14.952836879432621</v>
@@ -766,27 +836,30 @@
         <v>1.006754518589801</v>
       </c>
       <c r="K5" s="2">
-        <v>1.0075081563518999</v>
+        <v>1.0075081563518899</v>
       </c>
       <c r="L5" s="2">
-        <v>1.007508154937206</v>
+        <v>1.0075081549372</v>
       </c>
       <c r="M5" s="2">
-        <v>1.001575013276351</v>
-      </c>
-      <c r="N5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1.0021307886720481</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2.0340994448816729E-3</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3">
         <v>-17.060283687943269</v>
@@ -810,22 +883,30 @@
         <v>1.0169233080731039</v>
       </c>
       <c r="K6" s="2">
-        <v>1.0264060320053441</v>
+        <v>1.0264060320053401</v>
       </c>
       <c r="L6" s="2">
-        <v>1.015533986415682</v>
-      </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1.01553398641568</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1.006379444975664</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1.731514004911224E-3</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3">
         <v>-14.45106382978723</v>
@@ -849,22 +930,30 @@
         <v>1.0042981355099649</v>
       </c>
       <c r="K7" s="2">
-        <v>1.0129150841388539</v>
+        <v>1.0129150841388499</v>
       </c>
       <c r="L7" s="2">
-        <v>1.0028118578229039</v>
-      </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1.0028118578228999</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.99491211169356575</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2.1339835263551208E-3</v>
+      </c>
+      <c r="O7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3">
         <v>4.8170212765957441</v>
@@ -891,19 +980,27 @@
         <v>0.89984653203385301</v>
       </c>
       <c r="L8" s="2">
-        <v>0.89362443222027854</v>
-      </c>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.89362443222027799</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.88653188903163027</v>
+      </c>
+      <c r="N8" s="2">
+        <v>2.548137203202711E-3</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3">
         <v>-12.51051693404635</v>
@@ -930,19 +1027,23 @@
         <v>0.99605946896054298</v>
       </c>
       <c r="L9" s="2">
-        <v>0.99515329766817673</v>
+        <v>0.99515329766817595</v>
       </c>
       <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="2"/>
+      <c r="O9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3">
         <v>-11.905169340463461</v>
@@ -969,19 +1070,27 @@
         <v>0.99197421716577905</v>
       </c>
       <c r="L10" s="2">
-        <v>0.9910837752115651</v>
-      </c>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.99108377521156499</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.97348695777895955</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1.8908847153308539E-2</v>
+      </c>
+      <c r="O10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D11" s="3">
         <v>-17.151515151515149</v>
@@ -1008,24 +1117,27 @@
         <v>1.0533160980640299</v>
       </c>
       <c r="L11" s="2">
-        <v>1.011954410133608</v>
+        <v>1.0119544101336</v>
       </c>
       <c r="M11" s="2">
-        <v>0.9900434844407755</v>
-      </c>
-      <c r="N11">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.98996010296082204</v>
+      </c>
+      <c r="N11" s="2">
+        <v>3.3591315440385109E-3</v>
+      </c>
+      <c r="O11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3">
         <v>-16.949732620320859</v>
@@ -1049,27 +1161,30 @@
         <v>1.0163930847679119</v>
       </c>
       <c r="K12" s="2">
-        <v>1.0520679086926861</v>
+        <v>1.0520679086926801</v>
       </c>
       <c r="L12" s="2">
-        <v>1.010966505096504</v>
+        <v>1.0109665050965</v>
       </c>
       <c r="M12" s="2">
-        <v>0.99318255335742833</v>
-      </c>
-      <c r="N12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1.0008927207893521</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1.749885978927898E-3</v>
+      </c>
+      <c r="O12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3">
         <v>-16.84884135472371</v>
@@ -1093,22 +1208,30 @@
         <v>1.014461538791386</v>
       </c>
       <c r="K13" s="2">
-        <v>1.0505099262302411</v>
+        <v>1.05050992623024</v>
       </c>
       <c r="L13" s="2">
-        <v>1.009728490367247</v>
-      </c>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1.0097284903672401</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.91049762521379296</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2.6696325021798662E-3</v>
+      </c>
+      <c r="O13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3">
         <v>-15.83992869875223</v>
@@ -1132,27 +1255,30 @@
         <v>1.0110609500554579</v>
       </c>
       <c r="K14" s="2">
-        <v>1.015108703991412</v>
+        <v>1.01510870399141</v>
       </c>
       <c r="L14" s="2">
-        <v>1.0107726847520451</v>
+        <v>1.01077268475204</v>
       </c>
       <c r="M14" s="2">
-        <v>1.001131741690642</v>
-      </c>
-      <c r="N14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1.0023616246717211</v>
+      </c>
+      <c r="N14" s="2">
+        <v>2.4447481698626158E-3</v>
+      </c>
+      <c r="O14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3">
         <v>-13.115864527629229</v>
@@ -1176,27 +1302,30 @@
         <v>0.99768985194410686</v>
       </c>
       <c r="K15" s="2">
-        <v>1.021018645468696</v>
+        <v>1.02101864546869</v>
       </c>
       <c r="L15" s="2">
-        <v>0.99302010803511909</v>
+        <v>0.99302010803511898</v>
       </c>
       <c r="M15" s="2">
-        <v>0.98287884876390308</v>
-      </c>
-      <c r="N15">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.97743311090653151</v>
+      </c>
+      <c r="N15" s="2">
+        <v>4.7968461809997061E-3</v>
+      </c>
+      <c r="O15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3">
         <v>-14.427450980392161</v>
@@ -1220,22 +1349,30 @@
         <v>1.0041795609830031</v>
       </c>
       <c r="K16" s="2">
-        <v>1.0080267943468939</v>
+        <v>1.0080267943468899</v>
       </c>
       <c r="L16" s="2">
-        <v>1.0038743679779329</v>
-      </c>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1.0038743679779301</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1.0097591225223821</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1.19877953061511E-2</v>
+      </c>
+      <c r="O16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D17" s="3">
         <v>-14.12477718360071</v>
@@ -1259,22 +1396,30 @@
         <v>1.0026906504000539</v>
       </c>
       <c r="K17" s="2">
-        <v>1.007212310664144</v>
+        <v>1.00721231066414</v>
       </c>
       <c r="L17" s="2">
-        <v>1.002182349073927</v>
-      </c>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1.0021823490739199</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1.0108047811202141</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1.3600331288838721E-2</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3">
         <v>-10.39180035650624</v>
@@ -1298,27 +1443,30 @@
         <v>0.98179659350240456</v>
       </c>
       <c r="K18" s="2">
-        <v>0.98509600348379145</v>
+        <v>0.98509600348379101</v>
       </c>
       <c r="L18" s="2">
-        <v>0.98290975667274227</v>
+        <v>0.98290975667274205</v>
       </c>
       <c r="M18" s="2">
-        <v>0.97008444079256151</v>
-      </c>
-      <c r="N18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.97579495523859805</v>
+      </c>
+      <c r="N18" s="2">
+        <v>2.6887469513380922E-3</v>
+      </c>
+      <c r="O18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
         <v>29</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
       </c>
       <c r="D19" s="3">
         <v>-16.28632326820604</v>
@@ -1342,22 +1490,23 @@
         <v>1.012731294651579</v>
       </c>
       <c r="K19" s="2">
-        <v>1.0231375103579929</v>
+        <v>1.0231375103579901</v>
       </c>
       <c r="L19" s="2">
-        <v>1.011359847018078</v>
+        <v>1.01135984701807</v>
       </c>
       <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
         <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>43</v>
       </c>
       <c r="D20" s="3">
         <v>-16.487388987566611</v>
@@ -1381,22 +1530,23 @@
         <v>1.0141812312657741</v>
       </c>
       <c r="K20" s="2">
-        <v>1.023485915587008</v>
+        <v>1.023485915587</v>
       </c>
       <c r="L20" s="2">
-        <v>1.0127681444375669</v>
+        <v>1.01276814443756</v>
       </c>
       <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
         <v>29</v>
-      </c>
-      <c r="C21" t="s">
-        <v>43</v>
       </c>
       <c r="D21" s="3">
         <v>-14.878863232682059</v>
@@ -1420,22 +1570,23 @@
         <v>1.005900946397265</v>
       </c>
       <c r="K21" s="2">
-        <v>1.016725890001329</v>
+        <v>1.0167258900013201</v>
       </c>
       <c r="L21" s="2">
-        <v>1.0042767369985239</v>
+        <v>1.0042767369985199</v>
       </c>
       <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
         <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
       </c>
       <c r="D22" s="3">
         <v>-13.069271758436949</v>
@@ -1459,22 +1610,23 @@
         <v>0.99544841103950943</v>
       </c>
       <c r="K22" s="2">
-        <v>1.00630752877262</v>
+        <v>1.00630752877261</v>
       </c>
       <c r="L22" s="2">
-        <v>0.99448876269794817</v>
+        <v>0.99448876269794795</v>
       </c>
       <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D23" s="3">
         <v>-18.095914742451161</v>
@@ -1501,19 +1653,20 @@
         <v>1.0554024425509501</v>
       </c>
       <c r="L23" s="2">
-        <v>1.0167054603210539</v>
+        <v>1.0167054603210499</v>
       </c>
       <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D24" s="3">
         <v>-17.492717584369451</v>
@@ -1537,22 +1690,23 @@
         <v>1.018502897396893</v>
       </c>
       <c r="K24" s="2">
-        <v>1.0517562591057521</v>
+        <v>1.0517562591057501</v>
       </c>
       <c r="L24" s="2">
-        <v>1.0137801820518939</v>
+        <v>1.0137801820518899</v>
       </c>
       <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D25" s="3">
         <v>-19.201776198934279</v>
@@ -1576,22 +1730,23 @@
         <v>1.0270239276483499</v>
       </c>
       <c r="K25" s="2">
-        <v>1.071564759731398</v>
+        <v>1.07156475973139</v>
       </c>
       <c r="L25" s="2">
-        <v>1.0213379030024741</v>
+        <v>1.0213379030024701</v>
       </c>
       <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
         <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>43</v>
       </c>
       <c r="D26" s="3">
         <v>-16.688454706927178</v>
@@ -1615,22 +1770,23 @@
         <v>1.0146634912392669</v>
       </c>
       <c r="K26" s="2">
-        <v>1.039928951925672</v>
+        <v>1.03992895192567</v>
       </c>
       <c r="L26" s="2">
-        <v>1.010818627598576</v>
+        <v>1.01081862759857</v>
       </c>
       <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
         <v>29</v>
-      </c>
-      <c r="C27" t="s">
-        <v>43</v>
       </c>
       <c r="D27" s="3">
         <v>-15.280994671403199</v>
@@ -1654,22 +1810,23 @@
         <v>1.0083526288249249</v>
       </c>
       <c r="K27" s="2">
-        <v>1.032173854255358</v>
+        <v>1.03217385425535</v>
       </c>
       <c r="L27" s="2">
-        <v>1.0041341415524081</v>
+        <v>1.0041341415524001</v>
       </c>
       <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
         <v>29</v>
-      </c>
-      <c r="C28" t="s">
-        <v>43</v>
       </c>
       <c r="D28" s="3">
         <v>-15.38152753108348</v>
@@ -1693,22 +1850,23 @@
         <v>1.008841313134909</v>
       </c>
       <c r="K28" s="2">
-        <v>1.032748845681609</v>
+        <v>1.0327488456816001</v>
       </c>
       <c r="L28" s="2">
-        <v>1.0046328429922891</v>
+        <v>1.00463284299228</v>
       </c>
       <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D29" s="3">
         <v>17.060283687943262</v>
@@ -1732,22 +1890,23 @@
         <v>0.80082139492096649</v>
       </c>
       <c r="K29" s="2">
-        <v>0.80372972903990936</v>
+        <v>0.80372972903990902</v>
       </c>
       <c r="L29" s="2">
-        <v>0.79915200337690473</v>
+        <v>0.79915200337690395</v>
       </c>
       <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D30" s="3">
         <v>20.87375886524822</v>
@@ -1771,22 +1930,23 @@
         <v>0.76157053978909151</v>
       </c>
       <c r="K30" s="2">
-        <v>0.76509176877629215</v>
+        <v>0.76509176877629204</v>
       </c>
       <c r="L30" s="2">
-        <v>0.75951479620412043</v>
+        <v>0.75951479620411999</v>
       </c>
       <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D31" s="3">
         <v>-14.451063829787239</v>
@@ -1810,12 +1970,596 @@
         <v>1.0038051784228179</v>
       </c>
       <c r="K31" s="2">
-        <v>1.008594780415162</v>
+        <v>1.00859478041516</v>
       </c>
       <c r="L31" s="2">
-        <v>1.0035531661344621</v>
+        <v>1.0035531661344601</v>
       </c>
       <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="3">
+        <v>-16.649999999999999</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-16.55</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-57.05</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-56.95</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1.0159207835557009</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1.015442436160513</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1.015681609858107</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1.0179920495908901</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1.01496992299551</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1.0177096699840149</v>
+      </c>
+      <c r="N32" s="2">
+        <v>6.2141239155314634E-3</v>
+      </c>
+      <c r="O32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="3">
+        <v>-16.25</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-16.05</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-57.15</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-57.05</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1.0140042996283349</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1.013042945015932</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1.013523622322134</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1.0164955624274199</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1.01261849458925</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0.99406557463566969</v>
+      </c>
+      <c r="N33" s="2">
+        <v>1.499020203271037E-2</v>
+      </c>
+      <c r="O33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="3">
+        <v>-16.45</v>
+      </c>
+      <c r="E34" s="3">
+        <v>-16.350000000000001</v>
+      </c>
+      <c r="F34" s="3">
+        <v>-57.15</v>
+      </c>
+      <c r="G34" s="3">
+        <v>-57.05</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1.014963574254427</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1.0144841960196009</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1.0147238851370139</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1.0177304353538099</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1.01382272517309</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1.00862684406934</v>
+      </c>
+      <c r="N34" s="2">
+        <v>1.267903993264221E-2</v>
+      </c>
+      <c r="O34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="3">
+        <v>-16.95</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-16.850000000000001</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-57.05</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-56.95</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1.017352756707979</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1.016875942035905</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1.0171143493719419</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1.01945723352058</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1.01640628759301</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1.0232134789016529</v>
+      </c>
+      <c r="N35" s="2">
+        <v>9.7276043859057786E-3</v>
+      </c>
+      <c r="O35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="3">
+        <v>-14.75</v>
+      </c>
+      <c r="E36" s="3">
+        <v>-14.55</v>
+      </c>
+      <c r="F36" s="3">
+        <v>-56.75</v>
+      </c>
+      <c r="G36" s="3">
+        <v>-56.65</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1.0067424010868959</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1.00576496266168</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1.006253681874288</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1.0067057073271699</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1.0060982381854899</v>
+      </c>
+      <c r="M36" s="2">
+        <v>1.000478585334122</v>
+      </c>
+      <c r="N36" s="2">
+        <v>1.7773091522964679E-3</v>
+      </c>
+      <c r="O36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="3">
+        <v>-15.15</v>
+      </c>
+      <c r="E37" s="3">
+        <v>-15.05</v>
+      </c>
+      <c r="F37" s="3">
+        <v>-56.75</v>
+      </c>
+      <c r="G37" s="3">
+        <v>-56.65</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1.008690708178638</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1.008204447655888</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1.008447577917263</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1.0089063182217901</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1.0082922448905201</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0.98593135946862276</v>
+      </c>
+      <c r="N37" s="2">
+        <v>5.6552595288839567E-3</v>
+      </c>
+      <c r="O37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3">
+        <v>-56.75</v>
+      </c>
+      <c r="G38" s="3">
+        <v>-56.65</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2">
+        <v>0.38897556199117389</v>
+      </c>
+      <c r="N38" s="2">
+        <v>3.9110756938868882E-2</v>
+      </c>
+      <c r="O38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="3">
+        <v>-15.35</v>
+      </c>
+      <c r="E39" s="3">
+        <v>-15.25</v>
+      </c>
+      <c r="F39" s="3">
+        <v>-56.55</v>
+      </c>
+      <c r="G39" s="3">
+        <v>-56.45</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1.0096616085183081</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1.0091764278154149</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1.0094190181668621</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1.0094389055209401</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1.00943890409308</v>
+      </c>
+      <c r="M39" s="2">
+        <v>1.0005021297524761</v>
+      </c>
+      <c r="N39" s="2">
+        <v>1.8795736657364671E-3</v>
+      </c>
+      <c r="O39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="3">
+        <v>-12.35</v>
+      </c>
+      <c r="E40" s="3">
+        <v>-12.15</v>
+      </c>
+      <c r="F40" s="3">
+        <v>-56.65</v>
+      </c>
+      <c r="G40" s="3">
+        <v>-56.55</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.99486351433697007</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0.99385842253582479</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0.99436096843639743</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0.99438943417780901</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0.99438943284243997</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0.98175885692194242</v>
+      </c>
+      <c r="N40" s="2">
+        <v>4.613880150110823E-3</v>
+      </c>
+      <c r="O40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="3">
+        <v>-16.321164021164019</v>
+      </c>
+      <c r="E41" s="3">
+        <v>-16.221340388007061</v>
+      </c>
+      <c r="F41" s="3">
+        <v>-56.550088183421522</v>
+      </c>
+      <c r="G41" s="3">
+        <v>-56.450264550264563</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1.0143458664435989</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1.013866667395841</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1.0141062669197201</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1.0141225916104599</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1.0141225901489801</v>
+      </c>
+      <c r="M41" s="2">
+        <v>1.0088685826578969</v>
+      </c>
+      <c r="N41" s="2">
+        <v>2.5458504311346749E-3</v>
+      </c>
+      <c r="O41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="3">
+        <v>-11.72927689594356</v>
+      </c>
+      <c r="E42" s="3">
+        <v>-11.52962962962963</v>
+      </c>
+      <c r="F42" s="3">
+        <v>-56.550088183421522</v>
+      </c>
+      <c r="G42" s="3">
+        <v>-56.450264550264563</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.99173617433722572</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0.99072529939048948</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.99123073686385754</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0.99126035259124901</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0.99126035127234802</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1.0175968045557511</v>
+      </c>
+      <c r="N42" s="2">
+        <v>3.9970230848027512E-2</v>
+      </c>
+      <c r="O42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3">
+        <v>-56.649911816578488</v>
+      </c>
+      <c r="G43" s="3">
+        <v>-56.450264550264563</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="4">
+        <v>0.289217</v>
+      </c>
+      <c r="N43" s="4">
+        <v>4.1650000000000003E-3</v>
+      </c>
+      <c r="O43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="3">
+        <v>27.002292768959439</v>
+      </c>
+      <c r="E44" s="3">
+        <v>27.102116402116401</v>
+      </c>
+      <c r="F44" s="3">
+        <v>-56.649911816578488</v>
+      </c>
+      <c r="G44" s="3">
+        <v>-56.450264550264563</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.67629297772218466</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0.67434353977006434</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0.6753182587461245</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0.67534683234459303</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0.67534682867382101</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0.64755528852765565</v>
+      </c>
+      <c r="N44" s="2">
+        <v>9.2006462803861412E-3</v>
+      </c>
+      <c r="O44">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
